--- a/assignments/assignment_5/group_3_ass_5_2023/ 2013_Diciembre.xlsx
+++ b/assignments/assignment_5/group_3_ass_5_2023/ 2013_Diciembre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="186">
   <si>
     <t>Préstamos hasta 30 días</t>
   </si>
@@ -94,505 +94,484 @@
     <t>34.49</t>
   </si>
   <si>
-    <t>27.39</t>
-  </si>
-  <si>
-    <t>25.68</t>
+    <t>25.66</t>
+  </si>
+  <si>
+    <t>25.16</t>
+  </si>
+  <si>
+    <t>29.72</t>
   </si>
   <si>
     <t>42.58</t>
   </si>
   <si>
-    <t>38.48</t>
-  </si>
-  <si>
-    <t>27.63</t>
-  </si>
-  <si>
-    <t>43.52</t>
-  </si>
-  <si>
-    <t>34.73</t>
-  </si>
-  <si>
-    <t>47.46</t>
-  </si>
-  <si>
-    <t>45.54</t>
-  </si>
-  <si>
-    <t>44.85</t>
-  </si>
-  <si>
-    <t>37.15</t>
-  </si>
-  <si>
-    <t>45.15</t>
-  </si>
-  <si>
-    <t>36.53</t>
-  </si>
-  <si>
-    <t>36.80</t>
-  </si>
-  <si>
-    <t>52.53</t>
-  </si>
-  <si>
-    <t>39.12</t>
-  </si>
-  <si>
-    <t>42.66</t>
-  </si>
-  <si>
-    <t>35.54</t>
-  </si>
-  <si>
-    <t>50.01</t>
-  </si>
-  <si>
-    <t>56.35</t>
-  </si>
-  <si>
-    <t>57.43</t>
-  </si>
-  <si>
-    <t>50.73</t>
-  </si>
-  <si>
-    <t>49.53</t>
-  </si>
-  <si>
-    <t>37.62</t>
-  </si>
-  <si>
-    <t>31.09</t>
-  </si>
-  <si>
-    <t>41.51</t>
-  </si>
-  <si>
-    <t>33.35</t>
-  </si>
-  <si>
-    <t>39.28</t>
-  </si>
-  <si>
-    <t>70.82</t>
-  </si>
-  <si>
-    <t>40.33</t>
-  </si>
-  <si>
-    <t>33.52</t>
-  </si>
-  <si>
-    <t>27.62</t>
-  </si>
-  <si>
-    <t>42.62</t>
-  </si>
-  <si>
-    <t>113.21</t>
-  </si>
-  <si>
-    <t>98.91</t>
-  </si>
-  <si>
-    <t>92.85</t>
-  </si>
-  <si>
-    <t>47.11</t>
-  </si>
-  <si>
-    <t>34.15</t>
-  </si>
-  <si>
-    <t>25.34</t>
-  </si>
-  <si>
-    <t>25.21</t>
-  </si>
-  <si>
-    <t>25.35</t>
-  </si>
-  <si>
-    <t>20.34</t>
-  </si>
-  <si>
-    <t>19.56</t>
-  </si>
-  <si>
-    <t>20.59</t>
-  </si>
-  <si>
-    <t>22.95</t>
-  </si>
-  <si>
-    <t>30.54</t>
-  </si>
-  <si>
-    <t>26.82</t>
-  </si>
-  <si>
-    <t>42.68</t>
-  </si>
-  <si>
-    <t>22.25</t>
+    <t>25.49</t>
+  </si>
+  <si>
+    <t>41.93</t>
+  </si>
+  <si>
+    <t>31.42</t>
+  </si>
+  <si>
+    <t>48.82</t>
+  </si>
+  <si>
+    <t>49.54</t>
+  </si>
+  <si>
+    <t>43.85</t>
+  </si>
+  <si>
+    <t>33.79</t>
+  </si>
+  <si>
+    <t>57.44</t>
+  </si>
+  <si>
+    <t>32.85</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>36.76</t>
+  </si>
+  <si>
+    <t>35.61</t>
+  </si>
+  <si>
+    <t>41.44</t>
+  </si>
+  <si>
+    <t>36.47</t>
+  </si>
+  <si>
+    <t>49.09</t>
+  </si>
+  <si>
+    <t>61.96</t>
+  </si>
+  <si>
+    <t>62.38</t>
+  </si>
+  <si>
+    <t>50.02</t>
+  </si>
+  <si>
+    <t>51.53</t>
+  </si>
+  <si>
+    <t>48.42</t>
+  </si>
+  <si>
+    <t>40.07</t>
+  </si>
+  <si>
+    <t>31.20</t>
+  </si>
+  <si>
+    <t>49.62</t>
+  </si>
+  <si>
+    <t>34.38</t>
+  </si>
+  <si>
+    <t>101.22</t>
+  </si>
+  <si>
+    <t>50.25</t>
+  </si>
+  <si>
+    <t>60.50</t>
+  </si>
+  <si>
+    <t>37.91</t>
+  </si>
+  <si>
+    <t>29.09</t>
+  </si>
+  <si>
+    <t>48.33</t>
+  </si>
+  <si>
+    <t>116.64</t>
+  </si>
+  <si>
+    <t>62.80</t>
+  </si>
+  <si>
+    <t>97.72</t>
+  </si>
+  <si>
+    <t>46.03</t>
+  </si>
+  <si>
+    <t>41.48</t>
+  </si>
+  <si>
+    <t>27.87</t>
+  </si>
+  <si>
+    <t>25.99</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>20.98</t>
+  </si>
+  <si>
+    <t>23.14</t>
+  </si>
+  <si>
+    <t>23.96</t>
+  </si>
+  <si>
+    <t>27.22</t>
+  </si>
+  <si>
+    <t>22.35</t>
+  </si>
+  <si>
+    <t>27.85</t>
+  </si>
+  <si>
+    <t>21.60</t>
+  </si>
+  <si>
+    <t>26.32</t>
+  </si>
+  <si>
+    <t>32.94</t>
+  </si>
+  <si>
+    <t>28.13</t>
+  </si>
+  <si>
+    <t>25.46</t>
+  </si>
+  <si>
+    <t>36.30</t>
+  </si>
+  <si>
+    <t>24.52</t>
+  </si>
+  <si>
+    <t>33.92</t>
+  </si>
+  <si>
+    <t>45.76</t>
+  </si>
+  <si>
+    <t>40.93</t>
+  </si>
+  <si>
+    <t>40.23</t>
+  </si>
+  <si>
+    <t>32.88</t>
+  </si>
+  <si>
+    <t>41.40</t>
+  </si>
+  <si>
+    <t>45.93</t>
+  </si>
+  <si>
+    <t>44.34</t>
+  </si>
+  <si>
+    <t>45.65</t>
+  </si>
+  <si>
+    <t>42.89</t>
+  </si>
+  <si>
+    <t>40.83</t>
+  </si>
+  <si>
+    <t>25.12</t>
+  </si>
+  <si>
+    <t>18.91</t>
+  </si>
+  <si>
+    <t>26.81</t>
+  </si>
+  <si>
+    <t>15.09</t>
+  </si>
+  <si>
+    <t>14.70</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>22.40</t>
+  </si>
+  <si>
+    <t>27.28</t>
+  </si>
+  <si>
+    <t>23.55</t>
+  </si>
+  <si>
+    <t>27.12</t>
+  </si>
+  <si>
+    <t>31.37</t>
+  </si>
+  <si>
+    <t>27.44</t>
+  </si>
+  <si>
+    <t>36.84</t>
+  </si>
+  <si>
+    <t>32.63</t>
+  </si>
+  <si>
+    <t>38.19</t>
+  </si>
+  <si>
+    <t>43.71</t>
+  </si>
+  <si>
+    <t>35.99</t>
+  </si>
+  <si>
+    <t>31.06</t>
+  </si>
+  <si>
+    <t>22.64</t>
+  </si>
+  <si>
+    <t>31.86</t>
+  </si>
+  <si>
+    <t>12.59</t>
+  </si>
+  <si>
+    <t>23.87</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>26.74</t>
+  </si>
+  <si>
+    <t>28.28</t>
+  </si>
+  <si>
+    <t>30.76</t>
+  </si>
+  <si>
+    <t>30.13</t>
+  </si>
+  <si>
+    <t>29.93</t>
+  </si>
+  <si>
+    <t>25.85</t>
+  </si>
+  <si>
+    <t>34.46</t>
+  </si>
+  <si>
+    <t>24.61</t>
+  </si>
+  <si>
+    <t>32.91</t>
+  </si>
+  <si>
+    <t>37.51</t>
+  </si>
+  <si>
+    <t>34.60</t>
+  </si>
+  <si>
+    <t>34.32</t>
+  </si>
+  <si>
+    <t>34.25</t>
+  </si>
+  <si>
+    <t>38.32</t>
+  </si>
+  <si>
+    <t>33.96</t>
+  </si>
+  <si>
+    <t>10.09</t>
+  </si>
+  <si>
+    <t>9.72</t>
+  </si>
+  <si>
+    <t>10.83</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>10.68</t>
+  </si>
+  <si>
+    <t>24.12</t>
+  </si>
+  <si>
+    <t>21.02</t>
+  </si>
+  <si>
+    <t>20.96</t>
+  </si>
+  <si>
+    <t>20.08</t>
+  </si>
+  <si>
+    <t>29.69</t>
+  </si>
+  <si>
+    <t>29.41</t>
+  </si>
+  <si>
+    <t>30.55</t>
+  </si>
+  <si>
+    <t>30.95</t>
+  </si>
+  <si>
+    <t>32.44</t>
+  </si>
+  <si>
+    <t>27.51</t>
+  </si>
+  <si>
+    <t>43.23</t>
+  </si>
+  <si>
+    <t>41.68</t>
+  </si>
+  <si>
+    <t>45.17</t>
+  </si>
+  <si>
+    <t>43.32</t>
+  </si>
+  <si>
+    <t>42.29</t>
+  </si>
+  <si>
+    <t>37.06</t>
+  </si>
+  <si>
+    <t>39.21</t>
+  </si>
+  <si>
+    <t>35.83</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>35.80</t>
+  </si>
+  <si>
+    <t>55.59</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>32.53</t>
+  </si>
+  <si>
+    <t>58.88</t>
+  </si>
+  <si>
+    <t>116.87</t>
+  </si>
+  <si>
+    <t>43.63</t>
+  </si>
+  <si>
+    <t>39.80</t>
+  </si>
+  <si>
+    <t>29.56</t>
+  </si>
+  <si>
+    <t>27.45</t>
+  </si>
+  <si>
+    <t>29.65</t>
+  </si>
+  <si>
+    <t>15.91</t>
+  </si>
+  <si>
+    <t>16.22</t>
+  </si>
+  <si>
+    <t>15.53</t>
+  </si>
+  <si>
+    <t>20.33</t>
   </si>
   <si>
     <t>28.59</t>
   </si>
   <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>24.40</t>
-  </si>
-  <si>
-    <t>36.97</t>
-  </si>
-  <si>
-    <t>28.07</t>
-  </si>
-  <si>
-    <t>27.94</t>
-  </si>
-  <si>
-    <t>30.22</t>
-  </si>
-  <si>
-    <t>27.47</t>
-  </si>
-  <si>
-    <t>36.30</t>
-  </si>
-  <si>
-    <t>49.51</t>
-  </si>
-  <si>
-    <t>42.42</t>
-  </si>
-  <si>
-    <t>41.68</t>
-  </si>
-  <si>
-    <t>39.67</t>
-  </si>
-  <si>
-    <t>35.20</t>
-  </si>
-  <si>
-    <t>41.75</t>
-  </si>
-  <si>
-    <t>53.73</t>
-  </si>
-  <si>
-    <t>47.71</t>
-  </si>
-  <si>
-    <t>45.60</t>
-  </si>
-  <si>
-    <t>43.44</t>
-  </si>
-  <si>
-    <t>41.11</t>
-  </si>
-  <si>
-    <t>25.44</t>
-  </si>
-  <si>
-    <t>23.36</t>
-  </si>
-  <si>
-    <t>25.73</t>
-  </si>
-  <si>
-    <t>14.50</t>
-  </si>
-  <si>
-    <t>14.77</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>16.38</t>
-  </si>
-  <si>
-    <t>26.99</t>
-  </si>
-  <si>
-    <t>24.01</t>
-  </si>
-  <si>
-    <t>23.80</t>
-  </si>
-  <si>
-    <t>29.87</t>
-  </si>
-  <si>
-    <t>27.22</t>
-  </si>
-  <si>
-    <t>36.85</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>51.59</t>
-  </si>
-  <si>
-    <t>36.69</t>
-  </si>
-  <si>
-    <t>41.85</t>
-  </si>
-  <si>
-    <t>36.15</t>
-  </si>
-  <si>
-    <t>34.25</t>
-  </si>
-  <si>
-    <t>30.08</t>
-  </si>
-  <si>
-    <t>34.74</t>
-  </si>
-  <si>
-    <t>23.46</t>
-  </si>
-  <si>
-    <t>21.50</t>
-  </si>
-  <si>
-    <t>18.16</t>
-  </si>
-  <si>
-    <t>23.87</t>
-  </si>
-  <si>
-    <t>25.61</t>
-  </si>
-  <si>
-    <t>47.64</t>
-  </si>
-  <si>
-    <t>29.93</t>
-  </si>
-  <si>
-    <t>26.90</t>
-  </si>
-  <si>
-    <t>27.30</t>
-  </si>
-  <si>
-    <t>24.81</t>
-  </si>
-  <si>
-    <t>34.48</t>
-  </si>
-  <si>
-    <t>28.99</t>
-  </si>
-  <si>
-    <t>36.17</t>
-  </si>
-  <si>
-    <t>36.75</t>
-  </si>
-  <si>
-    <t>34.71</t>
-  </si>
-  <si>
-    <t>34.17</t>
-  </si>
-  <si>
-    <t>35.44</t>
-  </si>
-  <si>
-    <t>27.99</t>
-  </si>
-  <si>
-    <t>10.05</t>
-  </si>
-  <si>
-    <t>9.57</t>
-  </si>
-  <si>
-    <t>9.90</t>
-  </si>
-  <si>
-    <t>8.90</t>
-  </si>
-  <si>
-    <t>17.27</t>
-  </si>
-  <si>
-    <t>20.10</t>
-  </si>
-  <si>
-    <t>19.89</t>
-  </si>
-  <si>
-    <t>16.11</t>
-  </si>
-  <si>
-    <t>19.83</t>
-  </si>
-  <si>
-    <t>30.06</t>
-  </si>
-  <si>
-    <t>33.70</t>
-  </si>
-  <si>
-    <t>30.52</t>
-  </si>
-  <si>
-    <t>30.66</t>
-  </si>
-  <si>
-    <t>32.21</t>
-  </si>
-  <si>
-    <t>28.34</t>
-  </si>
-  <si>
-    <t>35.96</t>
-  </si>
-  <si>
-    <t>28.40</t>
-  </si>
-  <si>
-    <t>22.10</t>
-  </si>
-  <si>
-    <t>43.02</t>
-  </si>
-  <si>
-    <t>42.64</t>
-  </si>
-  <si>
-    <t>40.97</t>
-  </si>
-  <si>
-    <t>36.10</t>
-  </si>
-  <si>
-    <t>40.70</t>
-  </si>
-  <si>
-    <t>33.68</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>35.03</t>
-  </si>
-  <si>
-    <t>110.48</t>
-  </si>
-  <si>
-    <t>28.10</t>
-  </si>
-  <si>
-    <t>32.25</t>
-  </si>
-  <si>
-    <t>61.13</t>
-  </si>
-  <si>
-    <t>42.73</t>
-  </si>
-  <si>
-    <t>116.98</t>
-  </si>
-  <si>
-    <t>39.77</t>
-  </si>
-  <si>
-    <t>39.90</t>
-  </si>
-  <si>
-    <t>30.90</t>
-  </si>
-  <si>
-    <t>41.97</t>
-  </si>
-  <si>
-    <t>30.34</t>
-  </si>
-  <si>
-    <t>17.18</t>
-  </si>
-  <si>
-    <t>16.58</t>
-  </si>
-  <si>
-    <t>19.70</t>
-  </si>
-  <si>
-    <t>16.12</t>
-  </si>
-  <si>
-    <t>19.67</t>
-  </si>
-  <si>
-    <t>28.29</t>
-  </si>
-  <si>
-    <t>35.12</t>
-  </si>
-  <si>
-    <t>30.44</t>
-  </si>
-  <si>
-    <t>29.58</t>
-  </si>
-  <si>
-    <t>32.56</t>
-  </si>
-  <si>
-    <t>27.09</t>
-  </si>
-  <si>
-    <t>39.03</t>
-  </si>
-  <si>
-    <t>37.43</t>
-  </si>
-  <si>
-    <t>28.96</t>
-  </si>
-  <si>
-    <t>51.93</t>
-  </si>
-  <si>
-    <t>42.72</t>
-  </si>
-  <si>
-    <t>38.10</t>
-  </si>
-  <si>
-    <t>32.54</t>
-  </si>
-  <si>
-    <t>35.75</t>
-  </si>
-  <si>
-    <t>31.74</t>
-  </si>
-  <si>
-    <t>10.50</t>
+    <t>36.40</t>
+  </si>
+  <si>
+    <t>30.29</t>
+  </si>
+  <si>
+    <t>31.64</t>
+  </si>
+  <si>
+    <t>27.20</t>
+  </si>
+  <si>
+    <t>39.97</t>
+  </si>
+  <si>
+    <t>50.92</t>
+  </si>
+  <si>
+    <t>36.18</t>
+  </si>
+  <si>
+    <t>50.89</t>
+  </si>
+  <si>
+    <t>43.10</t>
+  </si>
+  <si>
+    <t>38.26</t>
+  </si>
+  <si>
+    <t>32.51</t>
+  </si>
+  <si>
+    <t>34.24</t>
+  </si>
+  <si>
+    <t>32.07</t>
+  </si>
+  <si>
+    <t>10.48</t>
   </si>
 </sst>
 </file>
@@ -985,7 +964,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -997,7 +976,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1131,13 +1110,13 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1201,13 +1180,13 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1236,13 +1215,13 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1271,13 +1250,13 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1306,13 +1285,13 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1358,31 +1337,31 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1446,13 +1425,13 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1469,25 +1448,25 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1498,7 +1477,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1510,19 +1489,19 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1548,16 +1527,16 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1574,25 +1553,25 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1603,31 +1582,31 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1676,28 +1655,28 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1708,31 +1687,31 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1746,28 +1725,28 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1781,28 +1760,28 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1816,28 +1795,28 @@
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H26" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1851,28 +1830,28 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1965,7 +1944,7 @@
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
@@ -1977,7 +1956,7 @@
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1988,31 +1967,31 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I31" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s">
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2023,31 +2002,31 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J32" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2058,31 +2037,31 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J33" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K33" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2093,31 +2072,31 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J34" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2128,31 +2107,31 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J35" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K35" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2163,31 +2142,31 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K36" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2303,31 +2282,31 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2338,31 +2317,31 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="I41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K41" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2423,16 +2402,16 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="J43" t="s">
         <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2458,16 +2437,16 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I44" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="J44" t="s">
         <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/assignments/assignment_5/group_3_ass_5_2023/ 2013_Diciembre.xlsx
+++ b/assignments/assignment_5/group_3_ass_5_2023/ 2013_Diciembre.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="193">
   <si>
     <t>Préstamos hasta 30 días</t>
   </si>
@@ -94,484 +94,505 @@
     <t>34.49</t>
   </si>
   <si>
-    <t>25.66</t>
-  </si>
-  <si>
-    <t>25.16</t>
-  </si>
-  <si>
-    <t>29.72</t>
+    <t>27.39</t>
+  </si>
+  <si>
+    <t>25.68</t>
   </si>
   <si>
     <t>42.58</t>
   </si>
   <si>
-    <t>25.49</t>
-  </si>
-  <si>
-    <t>41.93</t>
-  </si>
-  <si>
-    <t>31.42</t>
-  </si>
-  <si>
-    <t>48.82</t>
-  </si>
-  <si>
-    <t>49.54</t>
-  </si>
-  <si>
-    <t>43.85</t>
-  </si>
-  <si>
-    <t>33.79</t>
-  </si>
-  <si>
-    <t>57.44</t>
-  </si>
-  <si>
-    <t>32.85</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>36.76</t>
-  </si>
-  <si>
-    <t>35.61</t>
-  </si>
-  <si>
-    <t>41.44</t>
-  </si>
-  <si>
-    <t>36.47</t>
-  </si>
-  <si>
-    <t>49.09</t>
-  </si>
-  <si>
-    <t>61.96</t>
-  </si>
-  <si>
-    <t>62.38</t>
-  </si>
-  <si>
-    <t>50.02</t>
-  </si>
-  <si>
-    <t>51.53</t>
-  </si>
-  <si>
-    <t>48.42</t>
-  </si>
-  <si>
-    <t>40.07</t>
-  </si>
-  <si>
-    <t>31.20</t>
-  </si>
-  <si>
-    <t>49.62</t>
-  </si>
-  <si>
-    <t>34.38</t>
-  </si>
-  <si>
-    <t>101.22</t>
-  </si>
-  <si>
-    <t>50.25</t>
-  </si>
-  <si>
-    <t>60.50</t>
-  </si>
-  <si>
-    <t>37.91</t>
-  </si>
-  <si>
-    <t>29.09</t>
-  </si>
-  <si>
-    <t>48.33</t>
-  </si>
-  <si>
-    <t>116.64</t>
-  </si>
-  <si>
-    <t>62.80</t>
-  </si>
-  <si>
-    <t>97.72</t>
-  </si>
-  <si>
-    <t>46.03</t>
-  </si>
-  <si>
-    <t>41.48</t>
-  </si>
-  <si>
-    <t>27.87</t>
-  </si>
-  <si>
-    <t>25.99</t>
+    <t>38.48</t>
+  </si>
+  <si>
+    <t>27.63</t>
+  </si>
+  <si>
+    <t>43.52</t>
+  </si>
+  <si>
+    <t>34.73</t>
+  </si>
+  <si>
+    <t>47.46</t>
+  </si>
+  <si>
+    <t>45.54</t>
+  </si>
+  <si>
+    <t>44.85</t>
+  </si>
+  <si>
+    <t>37.15</t>
+  </si>
+  <si>
+    <t>45.15</t>
+  </si>
+  <si>
+    <t>36.53</t>
+  </si>
+  <si>
+    <t>36.80</t>
+  </si>
+  <si>
+    <t>52.53</t>
+  </si>
+  <si>
+    <t>39.12</t>
+  </si>
+  <si>
+    <t>42.66</t>
+  </si>
+  <si>
+    <t>35.54</t>
+  </si>
+  <si>
+    <t>50.01</t>
+  </si>
+  <si>
+    <t>56.35</t>
+  </si>
+  <si>
+    <t>57.43</t>
+  </si>
+  <si>
+    <t>50.73</t>
+  </si>
+  <si>
+    <t>49.53</t>
+  </si>
+  <si>
+    <t>37.62</t>
+  </si>
+  <si>
+    <t>31.09</t>
+  </si>
+  <si>
+    <t>41.51</t>
+  </si>
+  <si>
+    <t>33.35</t>
+  </si>
+  <si>
+    <t>39.28</t>
+  </si>
+  <si>
+    <t>70.82</t>
+  </si>
+  <si>
+    <t>40.33</t>
+  </si>
+  <si>
+    <t>33.52</t>
+  </si>
+  <si>
+    <t>27.62</t>
+  </si>
+  <si>
+    <t>42.62</t>
+  </si>
+  <si>
+    <t>113.21</t>
+  </si>
+  <si>
+    <t>98.91</t>
+  </si>
+  <si>
+    <t>92.85</t>
+  </si>
+  <si>
+    <t>47.11</t>
+  </si>
+  <si>
+    <t>34.15</t>
+  </si>
+  <si>
+    <t>25.34</t>
+  </si>
+  <si>
+    <t>25.21</t>
+  </si>
+  <si>
+    <t>25.35</t>
+  </si>
+  <si>
+    <t>20.34</t>
+  </si>
+  <si>
+    <t>19.56</t>
+  </si>
+  <si>
+    <t>20.59</t>
+  </si>
+  <si>
+    <t>22.95</t>
+  </si>
+  <si>
+    <t>30.54</t>
+  </si>
+  <si>
+    <t>26.82</t>
+  </si>
+  <si>
+    <t>42.68</t>
+  </si>
+  <si>
+    <t>22.25</t>
+  </si>
+  <si>
+    <t>28.59</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>24.40</t>
+  </si>
+  <si>
+    <t>36.97</t>
+  </si>
+  <si>
+    <t>28.07</t>
+  </si>
+  <si>
+    <t>27.94</t>
+  </si>
+  <si>
+    <t>30.22</t>
+  </si>
+  <si>
+    <t>27.47</t>
+  </si>
+  <si>
+    <t>36.30</t>
+  </si>
+  <si>
+    <t>49.51</t>
+  </si>
+  <si>
+    <t>42.42</t>
+  </si>
+  <si>
+    <t>41.68</t>
+  </si>
+  <si>
+    <t>39.67</t>
+  </si>
+  <si>
+    <t>35.20</t>
+  </si>
+  <si>
+    <t>41.75</t>
+  </si>
+  <si>
+    <t>53.73</t>
+  </si>
+  <si>
+    <t>47.71</t>
+  </si>
+  <si>
+    <t>45.60</t>
+  </si>
+  <si>
+    <t>43.44</t>
+  </si>
+  <si>
+    <t>41.11</t>
+  </si>
+  <si>
+    <t>25.44</t>
+  </si>
+  <si>
+    <t>23.36</t>
+  </si>
+  <si>
+    <t>25.73</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>14.77</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>16.38</t>
+  </si>
+  <si>
+    <t>26.99</t>
+  </si>
+  <si>
+    <t>24.01</t>
+  </si>
+  <si>
+    <t>23.80</t>
+  </si>
+  <si>
+    <t>29.87</t>
+  </si>
+  <si>
+    <t>27.22</t>
+  </si>
+  <si>
+    <t>36.85</t>
   </si>
   <si>
     <t>28.00</t>
   </si>
   <si>
-    <t>20.98</t>
-  </si>
-  <si>
-    <t>23.14</t>
-  </si>
-  <si>
-    <t>23.96</t>
-  </si>
-  <si>
-    <t>27.22</t>
-  </si>
-  <si>
-    <t>22.35</t>
-  </si>
-  <si>
-    <t>27.85</t>
-  </si>
-  <si>
-    <t>21.60</t>
-  </si>
-  <si>
-    <t>26.32</t>
-  </si>
-  <si>
-    <t>32.94</t>
-  </si>
-  <si>
-    <t>28.13</t>
-  </si>
-  <si>
-    <t>25.46</t>
-  </si>
-  <si>
-    <t>36.30</t>
-  </si>
-  <si>
-    <t>24.52</t>
-  </si>
-  <si>
-    <t>33.92</t>
-  </si>
-  <si>
-    <t>45.76</t>
-  </si>
-  <si>
-    <t>40.93</t>
-  </si>
-  <si>
-    <t>40.23</t>
-  </si>
-  <si>
-    <t>32.88</t>
-  </si>
-  <si>
-    <t>41.40</t>
-  </si>
-  <si>
-    <t>45.93</t>
-  </si>
-  <si>
-    <t>44.34</t>
-  </si>
-  <si>
-    <t>45.65</t>
-  </si>
-  <si>
-    <t>42.89</t>
-  </si>
-  <si>
-    <t>40.83</t>
-  </si>
-  <si>
-    <t>25.12</t>
-  </si>
-  <si>
-    <t>18.91</t>
-  </si>
-  <si>
-    <t>26.81</t>
-  </si>
-  <si>
-    <t>15.09</t>
-  </si>
-  <si>
-    <t>14.70</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>22.40</t>
-  </si>
-  <si>
-    <t>27.28</t>
-  </si>
-  <si>
-    <t>23.55</t>
-  </si>
-  <si>
-    <t>27.12</t>
-  </si>
-  <si>
-    <t>31.37</t>
-  </si>
-  <si>
-    <t>27.44</t>
-  </si>
-  <si>
-    <t>36.84</t>
-  </si>
-  <si>
-    <t>32.63</t>
-  </si>
-  <si>
-    <t>38.19</t>
-  </si>
-  <si>
-    <t>43.71</t>
-  </si>
-  <si>
-    <t>35.99</t>
-  </si>
-  <si>
-    <t>31.06</t>
-  </si>
-  <si>
-    <t>22.64</t>
-  </si>
-  <si>
-    <t>31.86</t>
-  </si>
-  <si>
-    <t>12.59</t>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>51.59</t>
+  </si>
+  <si>
+    <t>36.69</t>
+  </si>
+  <si>
+    <t>41.85</t>
+  </si>
+  <si>
+    <t>36.15</t>
+  </si>
+  <si>
+    <t>34.25</t>
+  </si>
+  <si>
+    <t>30.08</t>
+  </si>
+  <si>
+    <t>34.74</t>
+  </si>
+  <si>
+    <t>23.46</t>
+  </si>
+  <si>
+    <t>21.50</t>
+  </si>
+  <si>
+    <t>18.16</t>
   </si>
   <si>
     <t>23.87</t>
   </si>
   <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>26.74</t>
-  </si>
-  <si>
-    <t>28.28</t>
-  </si>
-  <si>
-    <t>30.76</t>
-  </si>
-  <si>
-    <t>30.13</t>
+    <t>25.61</t>
+  </si>
+  <si>
+    <t>47.64</t>
   </si>
   <si>
     <t>29.93</t>
   </si>
   <si>
-    <t>25.85</t>
-  </si>
-  <si>
-    <t>34.46</t>
-  </si>
-  <si>
-    <t>24.61</t>
-  </si>
-  <si>
-    <t>32.91</t>
-  </si>
-  <si>
-    <t>37.51</t>
-  </si>
-  <si>
-    <t>34.60</t>
-  </si>
-  <si>
-    <t>34.32</t>
-  </si>
-  <si>
-    <t>34.25</t>
-  </si>
-  <si>
-    <t>38.32</t>
-  </si>
-  <si>
-    <t>33.96</t>
-  </si>
-  <si>
-    <t>10.09</t>
-  </si>
-  <si>
-    <t>9.72</t>
-  </si>
-  <si>
-    <t>10.83</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>16.01</t>
-  </si>
-  <si>
-    <t>10.68</t>
-  </si>
-  <si>
-    <t>24.12</t>
-  </si>
-  <si>
-    <t>21.02</t>
-  </si>
-  <si>
-    <t>20.96</t>
-  </si>
-  <si>
-    <t>20.08</t>
-  </si>
-  <si>
-    <t>29.69</t>
-  </si>
-  <si>
-    <t>29.41</t>
-  </si>
-  <si>
-    <t>30.55</t>
-  </si>
-  <si>
-    <t>30.95</t>
-  </si>
-  <si>
-    <t>32.44</t>
-  </si>
-  <si>
-    <t>27.51</t>
-  </si>
-  <si>
-    <t>43.23</t>
-  </si>
-  <si>
-    <t>41.68</t>
-  </si>
-  <si>
-    <t>45.17</t>
-  </si>
-  <si>
-    <t>43.32</t>
-  </si>
-  <si>
-    <t>42.29</t>
-  </si>
-  <si>
-    <t>37.06</t>
-  </si>
-  <si>
-    <t>39.21</t>
-  </si>
-  <si>
-    <t>35.83</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>35.80</t>
-  </si>
-  <si>
-    <t>55.59</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>32.53</t>
-  </si>
-  <si>
-    <t>58.88</t>
-  </si>
-  <si>
-    <t>116.87</t>
-  </si>
-  <si>
-    <t>43.63</t>
-  </si>
-  <si>
-    <t>39.80</t>
-  </si>
-  <si>
-    <t>29.56</t>
-  </si>
-  <si>
-    <t>27.45</t>
-  </si>
-  <si>
-    <t>29.65</t>
-  </si>
-  <si>
-    <t>15.91</t>
-  </si>
-  <si>
-    <t>16.22</t>
-  </si>
-  <si>
-    <t>15.53</t>
-  </si>
-  <si>
-    <t>20.33</t>
-  </si>
-  <si>
-    <t>28.59</t>
-  </si>
-  <si>
-    <t>36.40</t>
-  </si>
-  <si>
-    <t>30.29</t>
-  </si>
-  <si>
-    <t>31.64</t>
-  </si>
-  <si>
-    <t>27.20</t>
-  </si>
-  <si>
-    <t>39.97</t>
-  </si>
-  <si>
-    <t>50.92</t>
-  </si>
-  <si>
-    <t>36.18</t>
-  </si>
-  <si>
-    <t>50.89</t>
-  </si>
-  <si>
-    <t>43.10</t>
-  </si>
-  <si>
-    <t>38.26</t>
-  </si>
-  <si>
-    <t>32.51</t>
-  </si>
-  <si>
-    <t>34.24</t>
-  </si>
-  <si>
-    <t>32.07</t>
-  </si>
-  <si>
-    <t>10.48</t>
+    <t>26.90</t>
+  </si>
+  <si>
+    <t>27.30</t>
+  </si>
+  <si>
+    <t>24.81</t>
+  </si>
+  <si>
+    <t>34.48</t>
+  </si>
+  <si>
+    <t>28.99</t>
+  </si>
+  <si>
+    <t>36.17</t>
+  </si>
+  <si>
+    <t>36.75</t>
+  </si>
+  <si>
+    <t>34.71</t>
+  </si>
+  <si>
+    <t>34.17</t>
+  </si>
+  <si>
+    <t>35.44</t>
+  </si>
+  <si>
+    <t>27.99</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>9.57</t>
+  </si>
+  <si>
+    <t>9.90</t>
+  </si>
+  <si>
+    <t>8.90</t>
+  </si>
+  <si>
+    <t>17.27</t>
+  </si>
+  <si>
+    <t>20.10</t>
+  </si>
+  <si>
+    <t>19.89</t>
+  </si>
+  <si>
+    <t>16.11</t>
+  </si>
+  <si>
+    <t>19.83</t>
+  </si>
+  <si>
+    <t>30.06</t>
+  </si>
+  <si>
+    <t>33.70</t>
+  </si>
+  <si>
+    <t>30.52</t>
+  </si>
+  <si>
+    <t>30.66</t>
+  </si>
+  <si>
+    <t>32.21</t>
+  </si>
+  <si>
+    <t>28.34</t>
+  </si>
+  <si>
+    <t>35.96</t>
+  </si>
+  <si>
+    <t>28.40</t>
+  </si>
+  <si>
+    <t>22.10</t>
+  </si>
+  <si>
+    <t>43.02</t>
+  </si>
+  <si>
+    <t>42.64</t>
+  </si>
+  <si>
+    <t>40.97</t>
+  </si>
+  <si>
+    <t>36.10</t>
+  </si>
+  <si>
+    <t>40.70</t>
+  </si>
+  <si>
+    <t>33.68</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>35.03</t>
+  </si>
+  <si>
+    <t>110.48</t>
+  </si>
+  <si>
+    <t>28.10</t>
+  </si>
+  <si>
+    <t>32.25</t>
+  </si>
+  <si>
+    <t>61.13</t>
+  </si>
+  <si>
+    <t>42.73</t>
+  </si>
+  <si>
+    <t>116.98</t>
+  </si>
+  <si>
+    <t>39.77</t>
+  </si>
+  <si>
+    <t>39.90</t>
+  </si>
+  <si>
+    <t>30.90</t>
+  </si>
+  <si>
+    <t>41.97</t>
+  </si>
+  <si>
+    <t>30.34</t>
+  </si>
+  <si>
+    <t>17.18</t>
+  </si>
+  <si>
+    <t>16.58</t>
+  </si>
+  <si>
+    <t>19.70</t>
+  </si>
+  <si>
+    <t>16.12</t>
+  </si>
+  <si>
+    <t>19.67</t>
+  </si>
+  <si>
+    <t>28.29</t>
+  </si>
+  <si>
+    <t>35.12</t>
+  </si>
+  <si>
+    <t>30.44</t>
+  </si>
+  <si>
+    <t>29.58</t>
+  </si>
+  <si>
+    <t>32.56</t>
+  </si>
+  <si>
+    <t>27.09</t>
+  </si>
+  <si>
+    <t>39.03</t>
+  </si>
+  <si>
+    <t>37.43</t>
+  </si>
+  <si>
+    <t>28.96</t>
+  </si>
+  <si>
+    <t>51.93</t>
+  </si>
+  <si>
+    <t>42.72</t>
+  </si>
+  <si>
+    <t>38.10</t>
+  </si>
+  <si>
+    <t>32.54</t>
+  </si>
+  <si>
+    <t>35.75</t>
+  </si>
+  <si>
+    <t>31.74</t>
+  </si>
+  <si>
+    <t>10.50</t>
   </si>
 </sst>
 </file>
@@ -964,7 +985,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -976,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1110,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1180,13 +1201,13 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1215,13 +1236,13 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1250,13 +1271,13 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1285,13 +1306,13 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1337,31 +1358,31 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1425,13 +1446,13 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1448,25 +1469,25 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1477,7 +1498,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -1489,19 +1510,19 @@
         <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1527,16 +1548,16 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1553,25 +1574,25 @@
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1582,31 +1603,31 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1655,28 +1676,28 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1687,31 +1708,31 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J23" t="s">
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1725,28 +1746,28 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K24" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1760,28 +1781,28 @@
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K25" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1795,28 +1816,28 @@
         <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J26" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K26" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1830,28 +1851,28 @@
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1944,7 +1965,7 @@
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
@@ -1956,7 +1977,7 @@
         <v>24</v>
       </c>
       <c r="K30" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1967,31 +1988,31 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
         <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="J31" t="s">
         <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2002,31 +2023,31 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="K32" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2037,31 +2058,31 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J33" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K33" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2072,31 +2093,31 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H34" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J34" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K34" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -2107,31 +2128,31 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J35" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K35" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2142,31 +2163,31 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I36" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J36" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K36" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2282,31 +2303,31 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H40" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I40" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J40" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2317,31 +2338,31 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" t="s">
         <v>111</v>
       </c>
-      <c r="H41" t="s">
-        <v>130</v>
-      </c>
       <c r="I41" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K41" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2402,16 +2423,16 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I43" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="J43" t="s">
         <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2437,16 +2458,16 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I44" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
         <v>24</v>
       </c>
       <c r="K44" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
